--- a/data/hotels_by_city/Dallas/Dallas_shard_734.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_734.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1068 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r553816736-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>73543</t>
+  </si>
+  <si>
+    <t>553816736</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Should’ve stayed next door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking is horrible, rooms are wore out and behind times, desk service is very disappointing and unhelpful </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r545559769-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>545559769</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r526274543-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>526274543</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r523142993-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>523142993</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r517464258-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>517464258</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r509095541-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>509095541</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Horrible!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do NOT stay here!! It was the worst experience of my life at any hotel/motel we have stayed at!! My mother came to the room to meet up with us to go eat and we were kicked out because we had visitors!! We were NEVER told no visitors and she WAS NOT staying! The refused to refund our money for the night! The hotel is ran down and smells terrible. The staff is rude and even pushed my 15 year old from the door way! I wouldn't recommend this hotel to anyone! </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r491526992-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491526992</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never think about this hotel room very bad,bad smell, the reception team very very bad they don't know how to deal with customers, the breakfast not good, a lot of bugs and the AC not good even the telephone not working I am coming every six months but I will never come to this hotel again </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r469382803-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>469382803</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r468074993-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>468074993</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Horrible hotel</t>
+  </si>
+  <si>
+    <t>Don't ever stay at this hotel it's the poorest excuse for a hotel!!.  It is a dirty flea bag out in middle of no where hotel.  They charge a $50 dollar deposit to ensure the room and won't release the money till after 9am!! I'm begging don't stay at this place stay safe</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r454769112-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>454769112</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>No service</t>
+  </si>
+  <si>
+    <t>The bathroom door won't close and the front door won't close right either.  I ask for an extra pillow and the desk say they give out extra pillows.  I told the front desk every day about the door problems but they were never fixes.  On the the stay before everything was find.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r454351629-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>454351629</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>1 star motel at best</t>
+  </si>
+  <si>
+    <t>This is a cheap, shady motel &amp; has no business being a Wyndham member.  Cheap, dirty rooms, uncomfortable beds &amp; very shady guests.  Waaaay over priced!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r446182488-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>446182488</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I've ever had.</t>
+  </si>
+  <si>
+    <t>The hotel a tenant had me standing outside and 20° weather instead of opening the lobby doors in having me come in.  Then checked me in to a room that was already occupied, having me carry my luggage up stairs just to wake someone up and have me carry my luggage back down to the car..  after an hour of going back-and-forth and freezing cold weather we finally got into a room around 2am and were rudely awoken by house keeping bright and early..</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r438578203-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>438578203</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Beware Fellow Travelers! Dishonest.</t>
+  </si>
+  <si>
+    <t>One star is too much for this location.Due to a booking error, upon check-in they asked me to rebook my room. I went to my app and did so. Unfortunately, they did not cancel the first reservation (even though the front desk lady said she would) and subsequently charged my card an extra $627.They refused to refund this!!!! What's worse, is I am still at this hotel and I'm going to be here for another 12 days on the second reservation which, I was happy about paying in full. Extremely poor management.Unbelievable ethics.Ridiculous customer service.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r436212906-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>436212906</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>One night</t>
+  </si>
+  <si>
+    <t>First time I've stayed here. Nice. Comfortable room. Staff are quiet and somewhat helpful. But I got the room I wanted. A little pricey for a Super 8. It is an indoor hotel. Security/room keys are need to use the side doors. Many eateries within walking distance. I'll probably stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r435627820-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>435627820</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Spent 2 nights with no issues. Didn't use the internet or have breakfast so can't comment on those. Room was decent and would stay there again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r420655991-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>420655991</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r419305447-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>419305447</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r418241538-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>418241538</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r406210123-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>406210123</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>One of the older super 8 motels,it's clean and beds are comfortable good choice of tv channels,in a good location,only noise is from the reserve airbase lot of flights in the morning and afternoon and they are flying low,still one of my favorite motels!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r402131274-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>402131274</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>I've been hear before. I stay twice and I couldn't remember why I haven't stay here again. There so many eateries here and a large shopping center close by.Well, I checked in. And then it hit me. A 50.00 deposit, poor parking grounds, and a really small room. The property has a lot of potential, but "we first want to care".</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r391934389-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>391934389</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Good...Bring pillows</t>
+  </si>
+  <si>
+    <t>A little tricky to find at night. They don't tell you about the 50 dollar deposit for the room.  Bring pillows. 3 for a king size bed. We usually bring ours but this was a spur of the moment. Girl at front desk when we checked out seemed overwhelmed.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r384620970-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>384620970</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r384559660-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>384559660</t>
+  </si>
+  <si>
+    <t>UGH</t>
+  </si>
+  <si>
+    <t>I've stayed a lot of places. I don't ask for much. Used Q-tips on the floor, sink drain onto the floor, towels were torn, furniture was beat up. I felt like this one on of the motels I use to see as a kid the was rented by the hour. I left my socks on just to walk across the floor. Never seen a Super 8 this bad.  I'll never use Hotels-Rate seems they leave a hotel like this on their list.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r382710153-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>382710153</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Rude</t>
+  </si>
+  <si>
+    <t>Checking in at 1 am.. made a reservation online a few days prior to arrival. I asked the clerk if i can have a single queen bed instead of two beds since my co worker didn't make the trip..He said no problem i have availability however, I would pay for the room i had reserved plus the queen bed. I said are you serious? He said yes of course.. you reserved you pay.. needless to say i kept the double. Being totally exhausted i dove straight into bed. Upon waking I saw a used tissue on the floor by the door.. also were some french fries next to the other bed.. OBVIOUSLY not mine… went downstairs to grab a coffee and complain to the front desk that the room wasn't clean plus I couldn't change the room due to the reservation. The clerk apologized profusely and said they would vacuum the room.. also said that I would expect some sort of compensation since the room was dirty.. needless to say the room was 70.00 and a single queen was 60.00. I asked that if they would discount the room to the single price id be happy.. Mean while i took pics and showed her so there was no mistake or miscommunication. I told her the man who checked us in was really rude and she apologized and said that he is that way… Came back very late as were attending...Checking in at 1 am.. made a reservation online a few days prior to arrival. I asked the clerk if i can have a single queen bed instead of two beds since my co worker didn't make the trip..He said no problem i have availability however, I would pay for the room i had reserved plus the queen bed. I said are you serious? He said yes of course.. you reserved you pay.. needless to say i kept the double. Being totally exhausted i dove straight into bed. Upon waking I saw a used tissue on the floor by the door.. also were some french fries next to the other bed.. OBVIOUSLY not mine… went downstairs to grab a coffee and complain to the front desk that the room wasn't clean plus I couldn't change the room due to the reservation. The clerk apologized profusely and said they would vacuum the room.. also said that I would expect some sort of compensation since the room was dirty.. needless to say the room was 70.00 and a single queen was 60.00. I asked that if they would discount the room to the single price id be happy.. Mean while i took pics and showed her so there was no mistake or miscommunication. I told her the man who checked us in was really rude and she apologized and said that he is that way… Came back very late as were attending a horse show.. room looked like a vacuum made a swath thru… however… the tissue in question as well the french fries were STILL THERE… called downstairs and said id have to wait to talk to said jerk in the morning… I got up and checked out and told the clerk I've had it and i demand some type of compensation for the room still being dirty. She had the jerk on the phone and he said i was lying that he went and inspected the room… I then showed her the pics i took again of the same tissue and french fries as it geo tags the date. She said to call back at 10;00 am.. The jerk calls me and said he didn't see anything.. i offered to send him the pics that I took as i was walking out the door… he said if i came back that he would give me a discount on another room if i was interested as he wasn't interested in admitting the room was still dirty as he would have to check it out himself. Ive stayed at many Super 8's and have NEVER been treated like this… Next email to Wyndam to let them know how unprofessional their franchise owners are and how i may never stay at another Wyndham property if they condone such unprofessionalism. So, check out room 240 and see if there is the tissue and fries from God knows how long!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Checking in at 1 am.. made a reservation online a few days prior to arrival. I asked the clerk if i can have a single queen bed instead of two beds since my co worker didn't make the trip..He said no problem i have availability however, I would pay for the room i had reserved plus the queen bed. I said are you serious? He said yes of course.. you reserved you pay.. needless to say i kept the double. Being totally exhausted i dove straight into bed. Upon waking I saw a used tissue on the floor by the door.. also were some french fries next to the other bed.. OBVIOUSLY not mine… went downstairs to grab a coffee and complain to the front desk that the room wasn't clean plus I couldn't change the room due to the reservation. The clerk apologized profusely and said they would vacuum the room.. also said that I would expect some sort of compensation since the room was dirty.. needless to say the room was 70.00 and a single queen was 60.00. I asked that if they would discount the room to the single price id be happy.. Mean while i took pics and showed her so there was no mistake or miscommunication. I told her the man who checked us in was really rude and she apologized and said that he is that way… Came back very late as were attending...Checking in at 1 am.. made a reservation online a few days prior to arrival. I asked the clerk if i can have a single queen bed instead of two beds since my co worker didn't make the trip..He said no problem i have availability however, I would pay for the room i had reserved plus the queen bed. I said are you serious? He said yes of course.. you reserved you pay.. needless to say i kept the double. Being totally exhausted i dove straight into bed. Upon waking I saw a used tissue on the floor by the door.. also were some french fries next to the other bed.. OBVIOUSLY not mine… went downstairs to grab a coffee and complain to the front desk that the room wasn't clean plus I couldn't change the room due to the reservation. The clerk apologized profusely and said they would vacuum the room.. also said that I would expect some sort of compensation since the room was dirty.. needless to say the room was 70.00 and a single queen was 60.00. I asked that if they would discount the room to the single price id be happy.. Mean while i took pics and showed her so there was no mistake or miscommunication. I told her the man who checked us in was really rude and she apologized and said that he is that way… Came back very late as were attending a horse show.. room looked like a vacuum made a swath thru… however… the tissue in question as well the french fries were STILL THERE… called downstairs and said id have to wait to talk to said jerk in the morning… I got up and checked out and told the clerk I've had it and i demand some type of compensation for the room still being dirty. She had the jerk on the phone and he said i was lying that he went and inspected the room… I then showed her the pics i took again of the same tissue and french fries as it geo tags the date. She said to call back at 10;00 am.. The jerk calls me and said he didn't see anything.. i offered to send him the pics that I took as i was walking out the door… he said if i came back that he would give me a discount on another room if i was interested as he wasn't interested in admitting the room was still dirty as he would have to check it out himself. Ive stayed at many Super 8's and have NEVER been treated like this… Next email to Wyndam to let them know how unprofessional their franchise owners are and how i may never stay at another Wyndham property if they condone such unprofessionalism. So, check out room 240 and see if there is the tissue and fries from God knows how long!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r361337500-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>361337500</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r360141113-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>360141113</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>we would not stay here - we left!</t>
+  </si>
+  <si>
+    <t>very sketchy!! windows were like plexy glass - you could push on them and they would move.  I had 3 teenagers with me and they would not stay here as they were scared.  Manager would not refund my money for second night</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r358025446-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>358025446</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>worst super 8 EVER!!</t>
+  </si>
+  <si>
+    <t>Made reservation to fund out they canceled it two hours before I made it.How that happens there was no explanation! Good to know they had the room just for more money....wanted to charge for my 2 young children. Needed to make other reservation for the same price. Then there was a $50 deposit to pay on top of all this! After an hour of trying to get in the room my children were able to take their baths and ready for bed around 11 pm. We had to search the room for the TV remote which was not there and found there were no light bulbs in the lamps either. They must also have a trash can shortage as well, only one in the room! Remind you the deposit....for this crappy, dirty room!!! Worst experance start to finish I have EVER had in my motel stays. NEVER again will I stay at Super 8 again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Made reservation to fund out they canceled it two hours before I made it.How that happens there was no explanation! Good to know they had the room just for more money....wanted to charge for my 2 young children. Needed to make other reservation for the same price. Then there was a $50 deposit to pay on top of all this! After an hour of trying to get in the room my children were able to take their baths and ready for bed around 11 pm. We had to search the room for the TV remote which was not there and found there were no light bulbs in the lamps either. They must also have a trash can shortage as well, only one in the room! Remind you the deposit....for this crappy, dirty room!!! Worst experance start to finish I have EVER had in my motel stays. NEVER again will I stay at Super 8 again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r348458549-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>348458549</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Are They SERIOUS?!?!?!</t>
+  </si>
+  <si>
+    <t>Booked a room for my Daughter for 2 nights Valentines Day Weekend for Visit to Southwest College. Arrived to be told she would have to give a $50 deposit and pay with her debit card...no Biggie. Got to room to find toilet seats dirty and uncleaned, a partially eaten sweet roll in microwave and damaged peephole in door filled with cotton ball. Went to lobby to ask for another room, Eventually taken to room that smelled to strong of mildew that she chose not to enter. She then asked for a refund or credit back to her account and was refused. Manager (NICK?) actually told her she would either take a room by the time he had to leave or she would not get one at all and charges were NON REFUNDABLE. I then contacted Wyndham Group to see if they would help. They tried but no go for NICK. He even came out of the back, gave my daughter an angry look then went to his car and waited for several others to come and then left. When I Finally got to speak with NICK on the following Wednesday. He became angry and told me that he was not refunding my daughter and the discussion was over. EVEN raising his voice to do so. I contacted "CUSTOMER CARE" AGAIN at Wyndham on phone and they were sorry but NICK? had the final say and I would have to handle...Booked a room for my Daughter for 2 nights Valentines Day Weekend for Visit to Southwest College. Arrived to be told she would have to give a $50 deposit and pay with her debit card...no Biggie. Got to room to find toilet seats dirty and uncleaned, a partially eaten sweet roll in microwave and damaged peephole in door filled with cotton ball. Went to lobby to ask for another room, Eventually taken to room that smelled to strong of mildew that she chose not to enter. She then asked for a refund or credit back to her account and was refused. Manager (NICK?) actually told her she would either take a room by the time he had to leave or she would not get one at all and charges were NON REFUNDABLE. I then contacted Wyndham Group to see if they would help. They tried but no go for NICK. He even came out of the back, gave my daughter an angry look then went to his car and waited for several others to come and then left. When I Finally got to speak with NICK on the following Wednesday. He became angry and told me that he was not refunding my daughter and the discussion was over. EVEN raising his voice to do so. I contacted "CUSTOMER CARE" AGAIN at Wyndham on phone and they were sorry but NICK? had the final say and I would have to handle the situation through my bank if I chose to do so. I CHOSE!! I consider this event to be unacceptable and NICK and I should have a chance to meet some day soon so that his OFFENSIVE actions can be addressed properly. HOPE TO SEE HIM SOON... The Wrong Cat.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Booked a room for my Daughter for 2 nights Valentines Day Weekend for Visit to Southwest College. Arrived to be told she would have to give a $50 deposit and pay with her debit card...no Biggie. Got to room to find toilet seats dirty and uncleaned, a partially eaten sweet roll in microwave and damaged peephole in door filled with cotton ball. Went to lobby to ask for another room, Eventually taken to room that smelled to strong of mildew that she chose not to enter. She then asked for a refund or credit back to her account and was refused. Manager (NICK?) actually told her she would either take a room by the time he had to leave or she would not get one at all and charges were NON REFUNDABLE. I then contacted Wyndham Group to see if they would help. They tried but no go for NICK. He even came out of the back, gave my daughter an angry look then went to his car and waited for several others to come and then left. When I Finally got to speak with NICK on the following Wednesday. He became angry and told me that he was not refunding my daughter and the discussion was over. EVEN raising his voice to do so. I contacted "CUSTOMER CARE" AGAIN at Wyndham on phone and they were sorry but NICK? had the final say and I would have to handle...Booked a room for my Daughter for 2 nights Valentines Day Weekend for Visit to Southwest College. Arrived to be told she would have to give a $50 deposit and pay with her debit card...no Biggie. Got to room to find toilet seats dirty and uncleaned, a partially eaten sweet roll in microwave and damaged peephole in door filled with cotton ball. Went to lobby to ask for another room, Eventually taken to room that smelled to strong of mildew that she chose not to enter. She then asked for a refund or credit back to her account and was refused. Manager (NICK?) actually told her she would either take a room by the time he had to leave or she would not get one at all and charges were NON REFUNDABLE. I then contacted Wyndham Group to see if they would help. They tried but no go for NICK. He even came out of the back, gave my daughter an angry look then went to his car and waited for several others to come and then left. When I Finally got to speak with NICK on the following Wednesday. He became angry and told me that he was not refunding my daughter and the discussion was over. EVEN raising his voice to do so. I contacted "CUSTOMER CARE" AGAIN at Wyndham on phone and they were sorry but NICK? had the final say and I would have to handle the situation through my bank if I chose to do so. I CHOSE!! I consider this event to be unacceptable and NICK and I should have a chance to meet some day soon so that his OFFENSIVE actions can be addressed properly. HOPE TO SEE HIM SOON... The Wrong Cat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r344568075-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>344568075</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r335984565-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>335984565</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Historic Blizzard...We had to leave on 4th day...would not refund our money</t>
+  </si>
+  <si>
+    <t>(I would have given this motel a very good rating except for the response from the manager)  We booked in October for 4 nights at Christmas while visiting family.  (We have stayed here for the last 5 years.)  The last day we had to leave early because of the historic blizzard coming to Texas and we asked for our money back for that night.  The desk clerk said we would have to call the manager which we did.  I pleaded our case after we got home telling him we had gotten stranded in Mule Shoe, TX for 2 nights because of storm.   He wouldn't give our money back because we checked out later in the day even though we had never used the room, as pretty much living at our daughters.  FYI:  This motel has started to take a $50 damage deposit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>(I would have given this motel a very good rating except for the response from the manager)  We booked in October for 4 nights at Christmas while visiting family.  (We have stayed here for the last 5 years.)  The last day we had to leave early because of the historic blizzard coming to Texas and we asked for our money back for that night.  The desk clerk said we would have to call the manager which we did.  I pleaded our case after we got home telling him we had gotten stranded in Mule Shoe, TX for 2 nights because of storm.   He wouldn't give our money back because we checked out later in the day even though we had never used the room, as pretty much living at our daughters.  FYI:  This motel has started to take a $50 damage deposit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r327264284-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>327264284</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r324745280-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>324745280</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>We will be back..spacious, clean and friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here three nights enjoyed the staff and housekeeper rooms very clean and love the decor great pool view we will definitely will be back enjoyed the breakfast and plenty of things near by to do stock yards to flight deck mall and more good food within minutes</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r321013723-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>321013723</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Nick P, Manager at Super 8 Fort Worth, TX, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r319187552-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>319187552</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Had stayed at half a dozen hotels on trip so far, this has been the only one that needed a deposit. Room was ok, outside needed rubbish picked up, garden furniture was broken. 3 guests but only supplied 2 towels. Would not choose to stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>Had stayed at half a dozen hotels on trip so far, this has been the only one that needed a deposit. Room was ok, outside needed rubbish picked up, garden furniture was broken. 3 guests but only supplied 2 towels. Would not choose to stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r318313553-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>318313553</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Room not well cleaned , there a trash in d can, and towel left on d carpet upon entering d room. Plus was asked to have a$ 50 security deposit .MoreShow less</t>
+  </si>
+  <si>
+    <t>Room not well cleaned , there a trash in d can, and towel left on d carpet upon entering d room. Plus was asked to have a$ 50 security deposit .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r315192832-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>315192832</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r303105353-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>303105353</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Overall Good experience</t>
+  </si>
+  <si>
+    <t>I think the room was nice....I had one day of breakfast experience...I am not sure if it was the girl's first day...there was no ice on the yogurt...the juices were not watered down enough...but we were there for three days and everything else was great including the breakfast for the other days....great experience for the price!!! Definitely would return.....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I think the room was nice....I had one day of breakfast experience...I am not sure if it was the girl's first day...there was no ice on the yogurt...the juices were not watered down enough...but we were there for three days and everything else was great including the breakfast for the other days....great experience for the price!!! Definitely would return.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r302911443-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>302911443</t>
+  </si>
+  <si>
+    <t>Bad &amp; getting worse!</t>
+  </si>
+  <si>
+    <t>I've stayed at this Super 8  three times and in different rooms each time and all of them have needed a lot of work.  Even the housekeepers don't do the best job because the owners refuse to do any repairs or upkeep to the property.  I've stayed in some wonderful, clean Super 8 hotels, but this one is awful.  Carpet is old, dirty and sticky.  Don't walk barefoot.  Linens with holes from cigarette burns are washed and put back on the beds!!  Blankets are old and don't fit the beds. Chairs, the ones with 5 legs that roll, when one roller broke, instead of buying a replacement, just took off all of the rollers.  Ever tried to move one of these without the rollers!!!  Air conditioners in the wall, broken plastic fronts, make horrible noises, air only comes out one side, dirty, needs to be upgraded.  Breakfast room - horrible, unfriendly!!! Food is only OK,, bare essentials.   Would rather take our food back to the room than eat in there, or go to a restaurant.  Refrigerators in the rooms are old and the owners never replace parts.  No shelves inside so you can barely use them.  No holders for the door racks so they can't be used.  In one room we stayed in, the unit was on freeze and ruined everything we put in it.  Refrigerators have no controls to check or adjust on the inside! Towels were once white,...I've stayed at this Super 8  three times and in different rooms each time and all of them have needed a lot of work.  Even the housekeepers don't do the best job because the owners refuse to do any repairs or upkeep to the property.  I've stayed in some wonderful, clean Super 8 hotels, but this one is awful.  Carpet is old, dirty and sticky.  Don't walk barefoot.  Linens with holes from cigarette burns are washed and put back on the beds!!  Blankets are old and don't fit the beds. Chairs, the ones with 5 legs that roll, when one roller broke, instead of buying a replacement, just took off all of the rollers.  Ever tried to move one of these without the rollers!!!  Air conditioners in the wall, broken plastic fronts, make horrible noises, air only comes out one side, dirty, needs to be upgraded.  Breakfast room - horrible, unfriendly!!! Food is only OK,, bare essentials.   Would rather take our food back to the room than eat in there, or go to a restaurant.  Refrigerators in the rooms are old and the owners never replace parts.  No shelves inside so you can barely use them.  No holders for the door racks so they can't be used.  In one room we stayed in, the unit was on freeze and ruined everything we put in it.  Refrigerators have no controls to check or adjust on the inside! Towels were once white, now are a dingy gray and well used.  This hotel needs a complete renovation, even the parking lot is uninviting.  We moved to the hotel next door - comparable rate.  NO comparison in quality of service!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at this Super 8  three times and in different rooms each time and all of them have needed a lot of work.  Even the housekeepers don't do the best job because the owners refuse to do any repairs or upkeep to the property.  I've stayed in some wonderful, clean Super 8 hotels, but this one is awful.  Carpet is old, dirty and sticky.  Don't walk barefoot.  Linens with holes from cigarette burns are washed and put back on the beds!!  Blankets are old and don't fit the beds. Chairs, the ones with 5 legs that roll, when one roller broke, instead of buying a replacement, just took off all of the rollers.  Ever tried to move one of these without the rollers!!!  Air conditioners in the wall, broken plastic fronts, make horrible noises, air only comes out one side, dirty, needs to be upgraded.  Breakfast room - horrible, unfriendly!!! Food is only OK,, bare essentials.   Would rather take our food back to the room than eat in there, or go to a restaurant.  Refrigerators in the rooms are old and the owners never replace parts.  No shelves inside so you can barely use them.  No holders for the door racks so they can't be used.  In one room we stayed in, the unit was on freeze and ruined everything we put in it.  Refrigerators have no controls to check or adjust on the inside! Towels were once white,...I've stayed at this Super 8  three times and in different rooms each time and all of them have needed a lot of work.  Even the housekeepers don't do the best job because the owners refuse to do any repairs or upkeep to the property.  I've stayed in some wonderful, clean Super 8 hotels, but this one is awful.  Carpet is old, dirty and sticky.  Don't walk barefoot.  Linens with holes from cigarette burns are washed and put back on the beds!!  Blankets are old and don't fit the beds. Chairs, the ones with 5 legs that roll, when one roller broke, instead of buying a replacement, just took off all of the rollers.  Ever tried to move one of these without the rollers!!!  Air conditioners in the wall, broken plastic fronts, make horrible noises, air only comes out one side, dirty, needs to be upgraded.  Breakfast room - horrible, unfriendly!!! Food is only OK,, bare essentials.   Would rather take our food back to the room than eat in there, or go to a restaurant.  Refrigerators in the rooms are old and the owners never replace parts.  No shelves inside so you can barely use them.  No holders for the door racks so they can't be used.  In one room we stayed in, the unit was on freeze and ruined everything we put in it.  Refrigerators have no controls to check or adjust on the inside! Towels were once white, now are a dingy gray and well used.  This hotel needs a complete renovation, even the parking lot is uninviting.  We moved to the hotel next door - comparable rate.  NO comparison in quality of service!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r301598397-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>301598397</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Best motel in Dallas/Fort Worth!!!</t>
+  </si>
+  <si>
+    <t>Let me just say that I travel 65% of the year so I have stayed at quite a few hotels and motels.This Super 8 off Calmont in Fort Worth is the BEST I have found for my budget.  Clean rooms and linens.  No bugs!!!  It is decorated in modern style with microwave and fridge.  AC always keeps me cool.  I have always had a quiet, pleasant stay.  Staff is always nice and professional.  The king beds are clearly newer and top quality as they are firm.  No sagging beds.  Even the laundry room has a generous size washer and dryer for an affordable rate.  There is a QT across the street and fast food down the road for me too.  Honestly, this is a perfect spot to feel safe and comfy away from home. Thanks for keeping the rates affordable for those of us who can't afford the $95 plus rooms but want to feel like we got one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me just say that I travel 65% of the year so I have stayed at quite a few hotels and motels.This Super 8 off Calmont in Fort Worth is the BEST I have found for my budget.  Clean rooms and linens.  No bugs!!!  It is decorated in modern style with microwave and fridge.  AC always keeps me cool.  I have always had a quiet, pleasant stay.  Staff is always nice and professional.  The king beds are clearly newer and top quality as they are firm.  No sagging beds.  Even the laundry room has a generous size washer and dryer for an affordable rate.  There is a QT across the street and fast food down the road for me too.  Honestly, this is a perfect spot to feel safe and comfy away from home. Thanks for keeping the rates affordable for those of us who can't afford the $95 plus rooms but want to feel like we got one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r296149105-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>296149105</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Worst deal ever</t>
+  </si>
+  <si>
+    <t>I tried to check rates and they billed me for 4 rooms for a week and said it wasn't able to be cancelled. I will never use this service again!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r295442391-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>295442391</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>My wife booked a two night stay for $150.66.  The pillows were flat and obviously over used, and when asked if they had anymore the staff said no.  The ac kept shutting off even though the room temp never reached a comfortable temp.  After not sleeping for most of the night we were awaken by the maid service even though we had a do not disturb sign on the door.  We found out the room was booked for one night.  We decided to leave that morning at 11 am.  The clerk at the desk seemed preoccupied with texting on her phone than trying to get a new a refund.  When I finally got my refund I only got $62 back.  I will be reporting this super 8 to the BBB and to their corporate office for fraud and theft.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife booked a two night stay for $150.66.  The pillows were flat and obviously over used, and when asked if they had anymore the staff said no.  The ac kept shutting off even though the room temp never reached a comfortable temp.  After not sleeping for most of the night we were awaken by the maid service even though we had a do not disturb sign on the door.  We found out the room was booked for one night.  We decided to leave that morning at 11 am.  The clerk at the desk seemed preoccupied with texting on her phone than trying to get a new a refund.  When I finally got my refund I only got $62 back.  I will be reporting this super 8 to the BBB and to their corporate office for fraud and theft.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r293926494-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>293926494</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r269755932-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>269755932</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Good stay at this Super 8!</t>
+  </si>
+  <si>
+    <t>We spent three nights in early May. We found a reasonable cleaning, anda comfortable bed. The bathroom was ok and the breakfast was fair. For the price, we have absolutely nothing to complain about. I can definitely recommend this property.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r266164468-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>266164468</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r265925513-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>265925513</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Good for the price.</t>
+  </si>
+  <si>
+    <t>As seen in previous reviews, the parking lot was sort of scary. However, the lady at the check-in counter was very friendly and helpful. The room was good for the price. Big enough, had things we needed. Didn't go to the breakfast, so I cannot say anything about it. Somehow, the TV in the room only allowed us to watch 4 channels in Spanish and that's it. We tried to fix it, but didn't work. 2 out of 4 days, I noticed hair still stuck on the drain in the bathtub after the cleaning. Wasn't so sure if they did a great job cleaning it. One more thing...we were woken up by a LOUD noise in the morning, not everyday. It turns out there is a Naval Air Station really close(see the map) and it just happens that the hotel is right under the landing path or something...MoreShow less</t>
+  </si>
+  <si>
+    <t>As seen in previous reviews, the parking lot was sort of scary. However, the lady at the check-in counter was very friendly and helpful. The room was good for the price. Big enough, had things we needed. Didn't go to the breakfast, so I cannot say anything about it. Somehow, the TV in the room only allowed us to watch 4 channels in Spanish and that's it. We tried to fix it, but didn't work. 2 out of 4 days, I noticed hair still stuck on the drain in the bathtub after the cleaning. Wasn't so sure if they did a great job cleaning it. One more thing...we were woken up by a LOUD noise in the morning, not everyday. It turns out there is a Naval Air Station really close(see the map) and it just happens that the hotel is right under the landing path or something...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r261558617-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261558617</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Still Needs a Little Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room (a 2 bed suite with couch) was great.  The room was spacious and had all the amenities we wanted.  However, the property still needs lots of work.  The large grassy area on the west end of the property is a mess due to the construction next door.  The grass area in front of our room was trashy.  I spent some time cleaning up the cigarette butts, paper wraps, etc.  that littered the area. There is minor trash all over the property, which gives it a less than attractive appearance.  </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r261103078-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261103078</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Stay in Ft Worth, Tx</t>
+  </si>
+  <si>
+    <t>For a non-smoking room the  room had been smoked in. I bought a spray bottle of febreze and sprayed the floor, curtains and bed cover. I did this every day during our stay. I can't beleive the cleaning people did not notice. other wise the breakfast was ok. Next time I will pay a little more and stay somewhere else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r260977090-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>260977090</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Hotel staff sneaky and uncomfortable stay</t>
+  </si>
+  <si>
+    <t>Wow! What a joke. The outside does lack appeal. While the room was clean, the manager and front desk staff were rude. My 3 night stay was to be least desired. Glass and beer bottles all over the parking lot where you park.  All sorts of trash piled on back and side of motel. Then is started with me coming back after long hours during the day working to going up stairs to my room and key not working. Not just one night, but 2 nights. Of course that's the last thing you want to deal with when you are tired and just want to relax. It was made clear when my check out was so it wouldn't happen again as it is a big pet peeve of mine since I used to work at a hotel and provide great customer service.  Come to find out the second time it happened they de activated it because the housekeeper said their were a few dog hairs found. I said really! I am with 12 dogs all day long as my job and of course dog hair is all over my clothes and shoes. So of course when I lay on the bed yeah it probably comes off. They are not pet smart knowing all dogs shed and have hair! After having to basically argue and tell them it was because it was all over my clothes. 5 min later after getting...Wow! What a joke. The outside does lack appeal. While the room was clean, the manager and front desk staff were rude. My 3 night stay was to be least desired. Glass and beer bottles all over the parking lot where you park.  All sorts of trash piled on back and side of motel. Then is started with me coming back after long hours during the day working to going up stairs to my room and key not working. Not just one night, but 2 nights. Of course that's the last thing you want to deal with when you are tired and just want to relax. It was made clear when my check out was so it wouldn't happen again as it is a big pet peeve of mine since I used to work at a hotel and provide great customer service.  Come to find out the second time it happened they de activated it because the housekeeper said their were a few dog hairs found. I said really! I am with 12 dogs all day long as my job and of course dog hair is all over my clothes and shoes. So of course when I lay on the bed yeah it probably comes off. They are not pet smart knowing all dogs shed and have hair! After having to basically argue and tell them it was because it was all over my clothes. 5 min later after getting up to my room they had a front desk staff stand at a stairwell on the opposite end of my hall and watch me as I made a trip to my vehicle to get a couple things and while I was down there and come back up the stairs to my room the staff member was walking in the opposite direction from my room within 6 ft like he had looked through the window of my room or to watch me at my van. Very uncomfortable knowing they stalked me.  This was the biggest issue as they had to do that after I had ready talked to them.  Do not stay here. They will make you uncomfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Wow! What a joke. The outside does lack appeal. While the room was clean, the manager and front desk staff were rude. My 3 night stay was to be least desired. Glass and beer bottles all over the parking lot where you park.  All sorts of trash piled on back and side of motel. Then is started with me coming back after long hours during the day working to going up stairs to my room and key not working. Not just one night, but 2 nights. Of course that's the last thing you want to deal with when you are tired and just want to relax. It was made clear when my check out was so it wouldn't happen again as it is a big pet peeve of mine since I used to work at a hotel and provide great customer service.  Come to find out the second time it happened they de activated it because the housekeeper said their were a few dog hairs found. I said really! I am with 12 dogs all day long as my job and of course dog hair is all over my clothes and shoes. So of course when I lay on the bed yeah it probably comes off. They are not pet smart knowing all dogs shed and have hair! After having to basically argue and tell them it was because it was all over my clothes. 5 min later after getting...Wow! What a joke. The outside does lack appeal. While the room was clean, the manager and front desk staff were rude. My 3 night stay was to be least desired. Glass and beer bottles all over the parking lot where you park.  All sorts of trash piled on back and side of motel. Then is started with me coming back after long hours during the day working to going up stairs to my room and key not working. Not just one night, but 2 nights. Of course that's the last thing you want to deal with when you are tired and just want to relax. It was made clear when my check out was so it wouldn't happen again as it is a big pet peeve of mine since I used to work at a hotel and provide great customer service.  Come to find out the second time it happened they de activated it because the housekeeper said their were a few dog hairs found. I said really! I am with 12 dogs all day long as my job and of course dog hair is all over my clothes and shoes. So of course when I lay on the bed yeah it probably comes off. They are not pet smart knowing all dogs shed and have hair! After having to basically argue and tell them it was because it was all over my clothes. 5 min later after getting up to my room they had a front desk staff stand at a stairwell on the opposite end of my hall and watch me as I made a trip to my vehicle to get a couple things and while I was down there and come back up the stairs to my room the staff member was walking in the opposite direction from my room within 6 ft like he had looked through the window of my room or to watch me at my van. Very uncomfortable knowing they stalked me.  This was the biggest issue as they had to do that after I had ready talked to them.  Do not stay here. They will make you uncomfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r250572135-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>250572135</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel</t>
+  </si>
+  <si>
+    <t>Worst hotel in area  manger and manger assistant  are horrible. Went on errand went return someone had went into room plus dead bolt was broken. Assistant manger needs lot more people skills. They take copies of your credit cards not sure for what purpose Aldo they have you to sign a waiver gif accidents or thief ion property.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r250263654-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>250263654</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Identity theft potential</t>
+  </si>
+  <si>
+    <t>Staff makes a copy of your drivers license and credit card. And who knows where it will wind up after your stay. last time I'm staying there unless they change to not making copy of id.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r249691294-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>249691294</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>NCAA Championship Game night</t>
+  </si>
+  <si>
+    <t>First, the room cost only 63 bucks so with this you get what you pay for. I was spending the night with a group of friends so I got to see several rooms. Inside the rooms was not bad, no flat screen TV's, we got the old CRT's and we all had TV remote issues. My bed slept pretty good, the room was clean. The outside of the motel is in serious need of a face lift! Curb appeal sucks! In fact if my buddies had not already been there I wouldn't have checked in. Notice, upon check in, the front desk will make a copy of you DL and credit card. Another deal breaker for me, but since I didn't know they got me, I just changed the card the next day. They offer breakfast but it's weak at best. They don't have the usual waffle maker, you get eggo waffles with one toaster, so if you're not early you'll have to get in line. No eggs, no meat, no fruit, just cereal and one choice of danish.  Again you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, the room cost only 63 bucks so with this you get what you pay for. I was spending the night with a group of friends so I got to see several rooms. Inside the rooms was not bad, no flat screen TV's, we got the old CRT's and we all had TV remote issues. My bed slept pretty good, the room was clean. The outside of the motel is in serious need of a face lift! Curb appeal sucks! In fact if my buddies had not already been there I wouldn't have checked in. Notice, upon check in, the front desk will make a copy of you DL and credit card. Another deal breaker for me, but since I didn't know they got me, I just changed the card the next day. They offer breakfast but it's weak at best. They don't have the usual waffle maker, you get eggo waffles with one toaster, so if you're not early you'll have to get in line. No eggs, no meat, no fruit, just cereal and one choice of danish.  Again you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r242178197-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>242178197</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r240534826-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>240534826</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Too cold in texas</t>
+  </si>
+  <si>
+    <t>It was great! I loves how the room ,very comfortable and location to the rail club and I did only stay for night .....breakfast? Did not have a chance to enjoy it.. I would come to this next timeMoreShow less</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Super 8 Fort Worth, TX, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>It was great! I loves how the room ,very comfortable and location to the rail club and I did only stay for night .....breakfast? Did not have a chance to enjoy it.. I would come to this next timeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r234446329-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>234446329</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r217491812-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>217491812</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r214174849-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>214174849</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r213211211-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213211211</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>The front desk staff was good, but that where the positives end. VERYrun down rooms, door didn't latch, AC didn't work, massive stains on walls and floors. Bed was comfy enough, breakfast was a joke. A man got shot in the adjacent parking lot on a weekday evening. Would not recommend staying here to anyone!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r203512930-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>203512930</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r200267449-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>200267449</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r198182198-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>198182198</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Very unsatisfied</t>
+  </si>
+  <si>
+    <t>I was over charged for both MY rooms ,breakfast was not good,the was construction going on .I complained to management about being over charged and was told that the rate was only 4 more dollars a day it's not that bad.. On my last day there my vehicle was broken in to, my radio deck was stolen along with some tools, legal papers and my children's Christmas presents. I asked management if he could check the cameras and I was told the cameras only watch the rooms there is no no cameras watching the parking lot or vehicles. I WILL NEVER STAY AT THIS PLACE AGAIN OR ANY OTHER SUPER 8 or AFFILIATED COMPANIES.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I was over charged for both MY rooms ,breakfast was not good,the was construction going on .I complained to management about being over charged and was told that the rate was only 4 more dollars a day it's not that bad.. On my last day there my vehicle was broken in to, my radio deck was stolen along with some tools, legal papers and my children's Christmas presents. I asked management if he could check the cameras and I was told the cameras only watch the rooms there is no no cameras watching the parking lot or vehicles. I WILL NEVER STAY AT THIS PLACE AGAIN OR ANY OTHER SUPER 8 or AFFILIATED COMPANIES.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r185434080-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>185434080</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r185356797-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>185356797</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r184258241-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>184258241</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Nick P, General Manager at Super 8 Fort Worth, TX, responded to this reviewResponded November 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r179507409-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>179507409</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Trip to the Doc's</t>
+  </si>
+  <si>
+    <t>Clean room and nice furnishings. House keeping was cheerful and helpful.WiFi was on and off, thus pretty worthless. Air conditioning was loud.Will stay again on next trip.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r174458780-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>174458780</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r173677321-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>173677321</t>
+  </si>
+  <si>
+    <t>08/23/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r160905140-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>160905140</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r158895583-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>158895583</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r157250766-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>157250766</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Clean room,nice owners.we stayed 2 nights and was told the...</t>
+  </si>
+  <si>
+    <t>Clean room,nice owners.we stayed 2 nights and was told the bed would be made up,it wasn't.wouldnt keep me from staying again other than that!wasnt too happy on the parking lot.had older tv.remote didnt work half the time.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1710,4309 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>158</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" t="s">
+        <v>189</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>190</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" t="s">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s">
+        <v>200</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>206</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s">
+        <v>210</v>
+      </c>
+      <c r="L33" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>212</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>212</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>216</v>
+      </c>
+      <c r="X34" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" t="s">
+        <v>221</v>
+      </c>
+      <c r="L35" t="s">
+        <v>222</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>212</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>216</v>
+      </c>
+      <c r="X35" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" t="s">
+        <v>228</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>212</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>216</v>
+      </c>
+      <c r="X36" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>233</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>216</v>
+      </c>
+      <c r="X37" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" t="s">
+        <v>238</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>239</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>216</v>
+      </c>
+      <c r="X38" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>243</v>
+      </c>
+      <c r="L39" t="s">
+        <v>244</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>239</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" t="s">
+        <v>255</v>
+      </c>
+      <c r="K41" t="s">
+        <v>256</v>
+      </c>
+      <c r="L41" t="s">
+        <v>257</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>239</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J42" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>239</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" t="s">
+        <v>266</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>245</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" t="s">
+        <v>270</v>
+      </c>
+      <c r="L44" t="s">
+        <v>271</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>272</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" t="s">
+        <v>279</v>
+      </c>
+      <c r="K46" t="s">
+        <v>280</v>
+      </c>
+      <c r="L46" t="s">
+        <v>281</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>276</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>284</v>
+      </c>
+      <c r="J47" t="s">
+        <v>285</v>
+      </c>
+      <c r="K47" t="s">
+        <v>286</v>
+      </c>
+      <c r="L47" t="s">
+        <v>287</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>288</v>
+      </c>
+      <c r="O47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>289</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" t="s">
+        <v>291</v>
+      </c>
+      <c r="K48" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>288</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>295</v>
+      </c>
+      <c r="J49" t="s">
+        <v>296</v>
+      </c>
+      <c r="K49" t="s">
+        <v>297</v>
+      </c>
+      <c r="L49" t="s">
+        <v>298</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>288</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>300</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" t="s">
+        <v>302</v>
+      </c>
+      <c r="K50" t="s">
+        <v>303</v>
+      </c>
+      <c r="L50" t="s">
+        <v>304</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>305</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>307</v>
+      </c>
+      <c r="J51" t="s">
+        <v>308</v>
+      </c>
+      <c r="K51" t="s">
+        <v>309</v>
+      </c>
+      <c r="L51" t="s">
+        <v>310</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>305</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>311</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" t="s">
+        <v>313</v>
+      </c>
+      <c r="K52" t="s">
+        <v>314</v>
+      </c>
+      <c r="L52" t="s">
+        <v>315</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>305</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>317</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>318</v>
+      </c>
+      <c r="J53" t="s">
+        <v>319</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>320</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>321</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" t="s">
+        <v>323</v>
+      </c>
+      <c r="K54" t="s">
+        <v>324</v>
+      </c>
+      <c r="L54" t="s">
+        <v>325</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>320</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>326</v>
+      </c>
+      <c r="X54" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>329</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>330</v>
+      </c>
+      <c r="J55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>332</v>
+      </c>
+      <c r="O55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>333</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>334</v>
+      </c>
+      <c r="J56" t="s">
+        <v>335</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>336</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>338</v>
+      </c>
+      <c r="J57" t="s">
+        <v>339</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>336</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" t="s">
+        <v>342</v>
+      </c>
+      <c r="K58" t="s">
+        <v>343</v>
+      </c>
+      <c r="L58" t="s">
+        <v>344</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>345</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>346</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>347</v>
+      </c>
+      <c r="J59" t="s">
+        <v>348</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>349</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>350</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>351</v>
+      </c>
+      <c r="J60" t="s">
+        <v>352</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>349</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>354</v>
+      </c>
+      <c r="J61" t="s">
+        <v>355</v>
+      </c>
+      <c r="K61" t="s">
+        <v>356</v>
+      </c>
+      <c r="L61" t="s">
+        <v>357</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>358</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>360</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>361</v>
+      </c>
+      <c r="J62" t="s">
+        <v>362</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>363</v>
+      </c>
+      <c r="O62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>364</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>365</v>
+      </c>
+      <c r="J63" t="s">
+        <v>366</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>363</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>367</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>368</v>
+      </c>
+      <c r="J64" t="s">
+        <v>369</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>138</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>363</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>370</v>
+      </c>
+      <c r="X64" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>372</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>373</v>
+      </c>
+      <c r="J65" t="s">
+        <v>374</v>
+      </c>
+      <c r="K65" t="s">
+        <v>375</v>
+      </c>
+      <c r="L65" t="s">
+        <v>376</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>377</v>
+      </c>
+      <c r="O65" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>378</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>379</v>
+      </c>
+      <c r="J66" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>381</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>383</v>
+      </c>
+      <c r="J67" t="s">
+        <v>384</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>381</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>385</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>386</v>
+      </c>
+      <c r="J68" t="s">
+        <v>387</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>388</v>
+      </c>
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>390</v>
+      </c>
+      <c r="J69" t="s">
+        <v>391</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>392</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3574</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>393</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>394</v>
+      </c>
+      <c r="J70" t="s">
+        <v>395</v>
+      </c>
+      <c r="K70" t="s">
+        <v>396</v>
+      </c>
+      <c r="L70" t="s">
+        <v>397</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>392</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_734.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_734.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sldrslm</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>293barbz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r545559769-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>dawnhX1497LH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r526274543-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>E350YFjosephw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r523142993-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +231,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>894adelitaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r517464258-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -231,6 +246,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>624johnnyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r509095541-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,6 +267,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Mansoor A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r491526992-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +291,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>mluMpls_mn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r469382803-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +306,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>kkw1704</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r468074993-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -297,6 +324,9 @@
     <t>Don't ever stay at this hotel it's the poorest excuse for a hotel!!.  It is a dirty flea bag out in middle of no where hotel.  They charge a $50 dollar deposit to ensure the room and won't release the money till after 9am!! I'm begging don't stay at this place stay safe</t>
   </si>
   <si>
+    <t>Gladys M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r454769112-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,6 +345,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Kelly L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r454351629-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -330,6 +363,9 @@
     <t>This is a cheap, shady motel &amp; has no business being a Wyndham member.  Cheap, dirty rooms, uncomfortable beds &amp; very shady guests.  Waaaay over priced!!</t>
   </si>
   <si>
+    <t>patrickhT4807QD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r446182488-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,6 +384,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Tim W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r438578203-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,6 +405,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r436212906-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -381,6 +423,9 @@
     <t>First time I've stayed here. Nice. Comfortable room. Staff are quiet and somewhat helpful. But I got the room I wanted. A little pricey for a Super 8. It is an indoor hotel. Security/room keys are need to use the side doors. Many eateries within walking distance. I'll probably stay here again.</t>
   </si>
   <si>
+    <t>555jeffreyv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r435627820-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r420655991-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,6 +459,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>428terryd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r419305447-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -423,6 +474,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Victor H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r418241538-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,6 +492,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Daniel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r406210123-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -465,6 +522,9 @@
     <t>I've been hear before. I stay twice and I couldn't remember why I haven't stay here again. There so many eateries here and a large shopping center close by.Well, I checked in. And then it hit me. A 50.00 deposit, poor parking grounds, and a really small room. The property has a lot of potential, but "we first want to care".</t>
   </si>
   <si>
+    <t>shhparents</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r391934389-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,6 +543,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Mar B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r384620970-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -495,6 +558,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>darnold4141</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r384559660-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -507,6 +573,9 @@
     <t>I've stayed a lot of places. I don't ask for much. Used Q-tips on the floor, sink drain onto the floor, towels were torn, furniture was beat up. I felt like this one on of the motels I use to see as a kid the was rented by the hour. I left my socks on just to walk across the floor. Never seen a Super 8 this bad.  I'll never use Hotels-Rate seems they leave a hotel like this on their list.</t>
   </si>
   <si>
+    <t>WorldTraveler78950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r382710153-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -525,6 +594,9 @@
     <t>Checking in at 1 am.. made a reservation online a few days prior to arrival. I asked the clerk if i can have a single queen bed instead of two beds since my co worker didn't make the trip..He said no problem i have availability however, I would pay for the room i had reserved plus the queen bed. I said are you serious? He said yes of course.. you reserved you pay.. needless to say i kept the double. Being totally exhausted i dove straight into bed. Upon waking I saw a used tissue on the floor by the door.. also were some french fries next to the other bed.. OBVIOUSLY not mine… went downstairs to grab a coffee and complain to the front desk that the room wasn't clean plus I couldn't change the room due to the reservation. The clerk apologized profusely and said they would vacuum the room.. also said that I would expect some sort of compensation since the room was dirty.. needless to say the room was 70.00 and a single queen was 60.00. I asked that if they would discount the room to the single price id be happy.. Mean while i took pics and showed her so there was no mistake or miscommunication. I told her the man who checked us in was really rude and she apologized and said that he is that way… Came back very late as were attending...Checking in at 1 am.. made a reservation online a few days prior to arrival. I asked the clerk if i can have a single queen bed instead of two beds since my co worker didn't make the trip..He said no problem i have availability however, I would pay for the room i had reserved plus the queen bed. I said are you serious? He said yes of course.. you reserved you pay.. needless to say i kept the double. Being totally exhausted i dove straight into bed. Upon waking I saw a used tissue on the floor by the door.. also were some french fries next to the other bed.. OBVIOUSLY not mine… went downstairs to grab a coffee and complain to the front desk that the room wasn't clean plus I couldn't change the room due to the reservation. The clerk apologized profusely and said they would vacuum the room.. also said that I would expect some sort of compensation since the room was dirty.. needless to say the room was 70.00 and a single queen was 60.00. I asked that if they would discount the room to the single price id be happy.. Mean while i took pics and showed her so there was no mistake or miscommunication. I told her the man who checked us in was really rude and she apologized and said that he is that way… Came back very late as were attending a horse show.. room looked like a vacuum made a swath thru… however… the tissue in question as well the french fries were STILL THERE… called downstairs and said id have to wait to talk to said jerk in the morning… I got up and checked out and told the clerk I've had it and i demand some type of compensation for the room still being dirty. She had the jerk on the phone and he said i was lying that he went and inspected the room… I then showed her the pics i took again of the same tissue and french fries as it geo tags the date. She said to call back at 10;00 am.. The jerk calls me and said he didn't see anything.. i offered to send him the pics that I took as i was walking out the door… he said if i came back that he would give me a discount on another room if i was interested as he wasn't interested in admitting the room was still dirty as he would have to check it out himself. Ive stayed at many Super 8's and have NEVER been treated like this… Next email to Wyndam to let them know how unprofessional their franchise owners are and how i may never stay at another Wyndham property if they condone such unprofessionalism. So, check out room 240 and see if there is the tissue and fries from God knows how long!!!More</t>
   </si>
   <si>
+    <t>roberthK5960RO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r361337500-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -537,6 +609,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>hanningstacy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r360141113-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,6 +630,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>letac2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r358025446-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -573,6 +651,9 @@
     <t>Made reservation to fund out they canceled it two hours before I made it.How that happens there was no explanation! Good to know they had the room just for more money....wanted to charge for my 2 young children. Needed to make other reservation for the same price. Then there was a $50 deposit to pay on top of all this! After an hour of trying to get in the room my children were able to take their baths and ready for bed around 11 pm. We had to search the room for the TV remote which was not there and found there were no light bulbs in the lamps either. They must also have a trash can shortage as well, only one in the room! Remind you the deposit....for this crappy, dirty room!!! Worst experance start to finish I have EVER had in my motel stays. NEVER again will I stay at Super 8 again!!!More</t>
   </si>
   <si>
+    <t>Tim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r348458549-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -594,6 +675,9 @@
     <t>Booked a room for my Daughter for 2 nights Valentines Day Weekend for Visit to Southwest College. Arrived to be told she would have to give a $50 deposit and pay with her debit card...no Biggie. Got to room to find toilet seats dirty and uncleaned, a partially eaten sweet roll in microwave and damaged peephole in door filled with cotton ball. Went to lobby to ask for another room, Eventually taken to room that smelled to strong of mildew that she chose not to enter. She then asked for a refund or credit back to her account and was refused. Manager (NICK?) actually told her she would either take a room by the time he had to leave or she would not get one at all and charges were NON REFUNDABLE. I then contacted Wyndham Group to see if they would help. They tried but no go for NICK. He even came out of the back, gave my daughter an angry look then went to his car and waited for several others to come and then left. When I Finally got to speak with NICK on the following Wednesday. He became angry and told me that he was not refunding my daughter and the discussion was over. EVEN raising his voice to do so. I contacted "CUSTOMER CARE" AGAIN at Wyndham on phone and they were sorry but NICK? had the final say and I would have to handle...Booked a room for my Daughter for 2 nights Valentines Day Weekend for Visit to Southwest College. Arrived to be told she would have to give a $50 deposit and pay with her debit card...no Biggie. Got to room to find toilet seats dirty and uncleaned, a partially eaten sweet roll in microwave and damaged peephole in door filled with cotton ball. Went to lobby to ask for another room, Eventually taken to room that smelled to strong of mildew that she chose not to enter. She then asked for a refund or credit back to her account and was refused. Manager (NICK?) actually told her she would either take a room by the time he had to leave or she would not get one at all and charges were NON REFUNDABLE. I then contacted Wyndham Group to see if they would help. They tried but no go for NICK. He even came out of the back, gave my daughter an angry look then went to his car and waited for several others to come and then left. When I Finally got to speak with NICK on the following Wednesday. He became angry and told me that he was not refunding my daughter and the discussion was over. EVEN raising his voice to do so. I contacted "CUSTOMER CARE" AGAIN at Wyndham on phone and they were sorry but NICK? had the final say and I would have to handle the situation through my bank if I chose to do so. I CHOSE!! I consider this event to be unacceptable and NICK and I should have a chance to meet some day soon so that his OFFENSIVE actions can be addressed properly. HOPE TO SEE HIM SOON... The Wrong Cat.More</t>
   </si>
   <si>
+    <t>johncG3046YN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r344568075-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -606,6 +690,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Deborah R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r335984565-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -627,6 +714,9 @@
     <t>(I would have given this motel a very good rating except for the response from the manager)  We booked in October for 4 nights at Christmas while visiting family.  (We have stayed here for the last 5 years.)  The last day we had to leave early because of the historic blizzard coming to Texas and we asked for our money back for that night.  The desk clerk said we would have to call the manager which we did.  I pleaded our case after we got home telling him we had gotten stranded in Mule Shoe, TX for 2 nights because of storm.   He wouldn't give our money back because we checked out later in the day even though we had never used the room, as pretty much living at our daughters.  FYI:  This motel has started to take a $50 damage deposit.More</t>
   </si>
   <si>
+    <t>Ellsworth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r327264284-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -639,6 +729,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>tiffany T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r324745280-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -657,6 +750,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>roderickr850</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r321013723-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -672,6 +768,9 @@
     <t>Responded November 5, 2015</t>
   </si>
   <si>
+    <t>Reginald B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r319187552-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -690,6 +789,9 @@
     <t>Had stayed at half a dozen hotels on trip so far, this has been the only one that needed a deposit. Room was ok, outside needed rubbish picked up, garden furniture was broken. 3 guests but only supplied 2 towels. Would not choose to stay againMore</t>
   </si>
   <si>
+    <t>Paul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r318313553-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -708,6 +810,9 @@
     <t>Room not well cleaned , there a trash in d can, and towel left on d carpet upon entering d room. Plus was asked to have a$ 50 security deposit .More</t>
   </si>
   <si>
+    <t>shellbe2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r315192832-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +825,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Khadijah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r303105353-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,6 +849,9 @@
     <t>I think the room was nice....I had one day of breakfast experience...I am not sure if it was the girl's first day...there was no ice on the yogurt...the juices were not watered down enough...but we were there for three days and everything else was great including the breakfast for the other days....great experience for the price!!! Definitely would return.....More</t>
   </si>
   <si>
+    <t>JUDY L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r302911443-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -759,6 +870,9 @@
     <t>I've stayed at this Super 8  three times and in different rooms each time and all of them have needed a lot of work.  Even the housekeepers don't do the best job because the owners refuse to do any repairs or upkeep to the property.  I've stayed in some wonderful, clean Super 8 hotels, but this one is awful.  Carpet is old, dirty and sticky.  Don't walk barefoot.  Linens with holes from cigarette burns are washed and put back on the beds!!  Blankets are old and don't fit the beds. Chairs, the ones with 5 legs that roll, when one roller broke, instead of buying a replacement, just took off all of the rollers.  Ever tried to move one of these without the rollers!!!  Air conditioners in the wall, broken plastic fronts, make horrible noises, air only comes out one side, dirty, needs to be upgraded.  Breakfast room - horrible, unfriendly!!! Food is only OK,, bare essentials.   Would rather take our food back to the room than eat in there, or go to a restaurant.  Refrigerators in the rooms are old and the owners never replace parts.  No shelves inside so you can barely use them.  No holders for the door racks so they can't be used.  In one room we stayed in, the unit was on freeze and ruined everything we put in it.  Refrigerators have no controls to check or adjust on the inside! Towels were once white,...I've stayed at this Super 8  three times and in different rooms each time and all of them have needed a lot of work.  Even the housekeepers don't do the best job because the owners refuse to do any repairs or upkeep to the property.  I've stayed in some wonderful, clean Super 8 hotels, but this one is awful.  Carpet is old, dirty and sticky.  Don't walk barefoot.  Linens with holes from cigarette burns are washed and put back on the beds!!  Blankets are old and don't fit the beds. Chairs, the ones with 5 legs that roll, when one roller broke, instead of buying a replacement, just took off all of the rollers.  Ever tried to move one of these without the rollers!!!  Air conditioners in the wall, broken plastic fronts, make horrible noises, air only comes out one side, dirty, needs to be upgraded.  Breakfast room - horrible, unfriendly!!! Food is only OK,, bare essentials.   Would rather take our food back to the room than eat in there, or go to a restaurant.  Refrigerators in the rooms are old and the owners never replace parts.  No shelves inside so you can barely use them.  No holders for the door racks so they can't be used.  In one room we stayed in, the unit was on freeze and ruined everything we put in it.  Refrigerators have no controls to check or adjust on the inside! Towels were once white, now are a dingy gray and well used.  This hotel needs a complete renovation, even the parking lot is uninviting.  We moved to the hotel next door - comparable rate.  NO comparison in quality of service!!More</t>
   </si>
   <si>
+    <t>Somer R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r301598397-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -777,6 +891,9 @@
     <t>Let me just say that I travel 65% of the year so I have stayed at quite a few hotels and motels.This Super 8 off Calmont in Fort Worth is the BEST I have found for my budget.  Clean rooms and linens.  No bugs!!!  It is decorated in modern style with microwave and fridge.  AC always keeps me cool.  I have always had a quiet, pleasant stay.  Staff is always nice and professional.  The king beds are clearly newer and top quality as they are firm.  No sagging beds.  Even the laundry room has a generous size washer and dryer for an affordable rate.  There is a QT across the street and fast food down the road for me too.  Honestly, this is a perfect spot to feel safe and comfy away from home. Thanks for keeping the rates affordable for those of us who can't afford the $95 plus rooms but want to feel like we got one.More</t>
   </si>
   <si>
+    <t>thomaslK7690DM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r296149105-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,6 +909,9 @@
     <t>I tried to check rates and they billed me for 4 rooms for a week and said it wasn't able to be cancelled. I will never use this service again!!!!!!</t>
   </si>
   <si>
+    <t>111lakisham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r295442391-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -810,6 +930,9 @@
     <t>My wife booked a two night stay for $150.66.  The pillows were flat and obviously over used, and when asked if they had anymore the staff said no.  The ac kept shutting off even though the room temp never reached a comfortable temp.  After not sleeping for most of the night we were awaken by the maid service even though we had a do not disturb sign on the door.  We found out the room was booked for one night.  We decided to leave that morning at 11 am.  The clerk at the desk seemed preoccupied with texting on her phone than trying to get a new a refund.  When I finally got my refund I only got $62 back.  I will be reporting this super 8 to the BBB and to their corporate office for fraud and theft.More</t>
   </si>
   <si>
+    <t>Carlos O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r293926494-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -819,6 +942,9 @@
     <t>07/29/2015</t>
   </si>
   <si>
+    <t>Toro53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r269755932-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,6 +963,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Deborah C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r266164468-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -849,6 +978,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Asami N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r265925513-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,6 +999,9 @@
     <t>As seen in previous reviews, the parking lot was sort of scary. However, the lady at the check-in counter was very friendly and helpful. The room was good for the price. Big enough, had things we needed. Didn't go to the breakfast, so I cannot say anything about it. Somehow, the TV in the room only allowed us to watch 4 channels in Spanish and that's it. We tried to fix it, but didn't work. 2 out of 4 days, I noticed hair still stuck on the drain in the bathtub after the cleaning. Wasn't so sure if they did a great job cleaning it. One more thing...we were woken up by a LOUD noise in the morning, not everyday. It turns out there is a Naval Air Station really close(see the map) and it just happens that the hotel is right under the landing path or something...More</t>
   </si>
   <si>
+    <t>Elizabeth G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r261558617-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1020,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Hugh S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r261103078-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1038,9 @@
     <t>For a non-smoking room the  room had been smoked in. I bought a spray bottle of febreze and sprayed the floor, curtains and bed cover. I did this every day during our stay. I can't beleive the cleaning people did not notice. other wise the breakfast was ok. Next time I will pay a little more and stay somewhere else.</t>
   </si>
   <si>
+    <t>Mstahr12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r260977090-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1059,9 @@
     <t>Wow! What a joke. The outside does lack appeal. While the room was clean, the manager and front desk staff were rude. My 3 night stay was to be least desired. Glass and beer bottles all over the parking lot where you park.  All sorts of trash piled on back and side of motel. Then is started with me coming back after long hours during the day working to going up stairs to my room and key not working. Not just one night, but 2 nights. Of course that's the last thing you want to deal with when you are tired and just want to relax. It was made clear when my check out was so it wouldn't happen again as it is a big pet peeve of mine since I used to work at a hotel and provide great customer service.  Come to find out the second time it happened they de activated it because the housekeeper said their were a few dog hairs found. I said really! I am with 12 dogs all day long as my job and of course dog hair is all over my clothes and shoes. So of course when I lay on the bed yeah it probably comes off. They are not pet smart knowing all dogs shed and have hair! After having to basically argue and tell them it was because it was all over my clothes. 5 min later after getting...Wow! What a joke. The outside does lack appeal. While the room was clean, the manager and front desk staff were rude. My 3 night stay was to be least desired. Glass and beer bottles all over the parking lot where you park.  All sorts of trash piled on back and side of motel. Then is started with me coming back after long hours during the day working to going up stairs to my room and key not working. Not just one night, but 2 nights. Of course that's the last thing you want to deal with when you are tired and just want to relax. It was made clear when my check out was so it wouldn't happen again as it is a big pet peeve of mine since I used to work at a hotel and provide great customer service.  Come to find out the second time it happened they de activated it because the housekeeper said their were a few dog hairs found. I said really! I am with 12 dogs all day long as my job and of course dog hair is all over my clothes and shoes. So of course when I lay on the bed yeah it probably comes off. They are not pet smart knowing all dogs shed and have hair! After having to basically argue and tell them it was because it was all over my clothes. 5 min later after getting up to my room they had a front desk staff stand at a stairwell on the opposite end of my hall and watch me as I made a trip to my vehicle to get a couple things and while I was down there and come back up the stairs to my room the staff member was walking in the opposite direction from my room within 6 ft like he had looked through the window of my room or to watch me at my van. Very uncomfortable knowing they stalked me.  This was the biggest issue as they had to do that after I had ready talked to them.  Do not stay here. They will make you uncomfortable. More</t>
   </si>
   <si>
+    <t>kdj411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r250572135-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1080,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>texjow3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r250263654-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1098,9 @@
     <t>Staff makes a copy of your drivers license and credit card. And who knows where it will wind up after your stay. last time I'm staying there unless they change to not making copy of id.</t>
   </si>
   <si>
+    <t>Luke V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r249691294-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1119,9 @@
     <t>First, the room cost only 63 bucks so with this you get what you pay for. I was spending the night with a group of friends so I got to see several rooms. Inside the rooms was not bad, no flat screen TV's, we got the old CRT's and we all had TV remote issues. My bed slept pretty good, the room was clean. The outside of the motel is in serious need of a face lift! Curb appeal sucks! In fact if my buddies had not already been there I wouldn't have checked in. Notice, upon check in, the front desk will make a copy of you DL and credit card. Another deal breaker for me, but since I didn't know they got me, I just changed the card the next day. They offer breakfast but it's weak at best. They don't have the usual waffle maker, you get eggo waffles with one toaster, so if you're not early you'll have to get in line. No eggs, no meat, no fruit, just cereal and one choice of danish.  Again you get what you pay for.More</t>
   </si>
   <si>
+    <t>unknown601</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r242178197-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1134,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Diana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r240534826-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1161,9 @@
     <t>It was great! I loves how the room ,very comfortable and location to the rail club and I did only stay for night .....breakfast? Did not have a chance to enjoy it.. I would come to this next timeMore</t>
   </si>
   <si>
+    <t>irisjimbo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r234446329-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1176,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Harold C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r217491812-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1191,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Jean B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r214174849-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1203,9 @@
     <t>07/07/2014</t>
   </si>
   <si>
+    <t>Michele R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r213211211-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1224,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Duane H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r203512930-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1239,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r200267449-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1251,9 @@
     <t>04/07/2014</t>
   </si>
   <si>
+    <t>Juan Manuel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r198182198-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1275,9 @@
     <t>I was over charged for both MY rooms ,breakfast was not good,the was construction going on .I complained to management about being over charged and was told that the rate was only 4 more dollars a day it's not that bad.. On my last day there my vehicle was broken in to, my radio deck was stolen along with some tools, legal papers and my children's Christmas presents. I asked management if he could check the cameras and I was told the cameras only watch the rooms there is no no cameras watching the parking lot or vehicles. I WILL NEVER STAY AT THIS PLACE AGAIN OR ANY OTHER SUPER 8 or AFFILIATED COMPANIES.More</t>
   </si>
   <si>
+    <t>John G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r185434080-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1290,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>DanisGarcia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r185356797-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1302,9 @@
     <t>11/20/2013</t>
   </si>
   <si>
+    <t>K K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r184258241-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1320,9 @@
     <t>Responded November 20, 2013</t>
   </si>
   <si>
+    <t>Floyd C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r179507409-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1341,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Gene P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r174458780-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1356,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Patsy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r173677321-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1368,9 @@
     <t>08/23/2013</t>
   </si>
   <si>
+    <t>Michael E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r160905140-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1383,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Laura W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r158895583-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1396,9 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>Glenda S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d73543-r157250766-Super_8_Fort_Worth_TX-Fort_Worth_Texas.html</t>
@@ -1714,43 +1918,47 @@
       <c r="A2" t="n">
         <v>3574</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178691</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1774,35 +1982,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3574</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178692</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1810,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1834,36 +2046,37 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3574</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178693</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1871,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1895,36 +2108,37 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3574</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178694</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1932,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1956,36 +2170,37 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3574</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178695</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1993,10 +2208,10 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2017,51 +2232,52 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3574</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178696</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
         <v>75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2085,50 +2301,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3574</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178697</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2142,35 +2362,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3574</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178698</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2178,10 +2402,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2202,42 +2426,43 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3574</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178699</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -2256,50 +2481,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3574</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>58266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2323,50 +2552,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3574</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>8164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2390,50 +2623,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3574</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178700</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2457,50 +2694,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3574</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>32532</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2514,50 +2755,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3574</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2571,50 +2816,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3574</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2638,35 +2887,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3574</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2674,10 +2927,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2698,36 +2951,37 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3574</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178702</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -2735,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2759,49 +3013,50 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3574</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>3876</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2825,50 +3080,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3574</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2882,50 +3141,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3574</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2939,50 +3202,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3574</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132363</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2996,35 +3263,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3574</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178703</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3032,10 +3303,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3056,51 +3327,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3574</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178704</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3124,50 +3396,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3574</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178705</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3183,48 +3459,52 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3574</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178706</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3248,50 +3528,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3574</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178707</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3309,50 +3593,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3574</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178708</v>
+      </c>
+      <c r="C28" t="s">
+        <v>204</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3376,50 +3664,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3574</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>2208</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3435,35 +3727,39 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3574</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178709</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3471,10 +3767,10 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3495,51 +3791,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3574</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>651</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3557,35 +3854,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3574</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178710</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3593,10 +3894,10 @@
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3609,51 +3910,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3574</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3667,48 +3969,52 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3574</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178712</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3730,56 +4036,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="X34" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Y34" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3574</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>91967</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="J35" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3801,56 +4111,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="X35" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Y35" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3574</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C36" t="s">
+        <v>257</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -3872,54 +4186,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="X36" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Y36" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3574</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178713</v>
+      </c>
+      <c r="C37" t="s">
+        <v>264</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3941,56 +4259,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="X37" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Y37" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3574</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="K38" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4012,56 +4334,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="X38" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3574</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178715</v>
+      </c>
+      <c r="C39" t="s">
+        <v>277</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="K39" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4081,50 +4407,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3574</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178716</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4138,50 +4468,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3574</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178717</v>
+      </c>
+      <c r="C41" t="s">
+        <v>291</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="J41" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="K41" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="L41" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4205,50 +4539,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3574</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178718</v>
+      </c>
+      <c r="C42" t="s">
+        <v>297</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4272,35 +4610,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3574</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178719</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="J43" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4308,10 +4650,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4332,51 +4674,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3574</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178720</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="K44" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4390,35 +4733,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3574</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>34325</v>
+      </c>
+      <c r="C45" t="s">
+        <v>315</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="J45" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4426,10 +4773,10 @@
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4450,51 +4797,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3574</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178721</v>
+      </c>
+      <c r="C46" t="s">
+        <v>320</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="J46" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4518,50 +4866,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3574</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>6846</v>
+      </c>
+      <c r="C47" t="s">
+        <v>327</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="J47" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4585,50 +4937,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3574</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178722</v>
+      </c>
+      <c r="C48" t="s">
+        <v>334</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4652,50 +5008,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3574</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178723</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="J49" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4709,50 +5069,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3574</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178724</v>
+      </c>
+      <c r="C50" t="s">
+        <v>347</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="J50" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="K50" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="L50" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="O50" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4770,50 +5134,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3574</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178725</v>
+      </c>
+      <c r="C51" t="s">
+        <v>354</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="J51" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="K51" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -4837,50 +5205,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3574</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178726</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="J52" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="O52" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -4900,35 +5272,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3574</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178727</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="J53" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -4936,10 +5312,10 @@
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="O53" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -4960,51 +5336,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3574</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>18814</v>
+      </c>
+      <c r="C54" t="s">
+        <v>372</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="J54" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="K54" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="O54" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5026,41 +5403,45 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="X54" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="Y54" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3574</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178728</v>
+      </c>
+      <c r="C55" t="s">
+        <v>381</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="J55" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5068,10 +5449,10 @@
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="O55" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5082,36 +5463,37 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3574</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>71397</v>
+      </c>
+      <c r="C56" t="s">
+        <v>386</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="J56" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5119,10 +5501,10 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5143,36 +5525,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3574</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>36453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>391</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="J57" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5180,10 +5563,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="O57" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5194,51 +5577,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3574</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>19276</v>
+      </c>
+      <c r="C58" t="s">
+        <v>395</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5262,35 +5646,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3574</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178729</v>
+      </c>
+      <c r="C59" t="s">
+        <v>402</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="J59" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5298,10 +5686,10 @@
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5322,36 +5710,37 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3574</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>997</v>
+      </c>
+      <c r="C60" t="s">
+        <v>407</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="J60" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5359,10 +5748,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5383,51 +5772,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3574</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178730</v>
+      </c>
+      <c r="C61" t="s">
+        <v>411</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="J61" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="K61" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5441,35 +5831,39 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3574</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>419</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="J62" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -5477,10 +5871,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="O62" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5501,36 +5895,37 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3574</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178731</v>
+      </c>
+      <c r="C63" t="s">
+        <v>424</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="J63" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5538,10 +5933,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5562,49 +5957,50 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3574</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>3419</v>
+      </c>
+      <c r="C64" t="s">
+        <v>428</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="J64" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -5626,56 +6022,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="X64" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3574</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178732</v>
+      </c>
+      <c r="C65" t="s">
+        <v>434</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="J65" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="K65" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="O65" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -5699,35 +6099,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3574</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>88255</v>
+      </c>
+      <c r="C66" t="s">
+        <v>441</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
       <c r="J66" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -5735,10 +6139,10 @@
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -5759,36 +6163,37 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3574</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>100521</v>
+      </c>
+      <c r="C67" t="s">
+        <v>446</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="J67" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -5796,10 +6201,10 @@
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>381</v>
+        <v>445</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -5820,36 +6225,37 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3574</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>8101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>450</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="J68" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -5857,10 +6263,10 @@
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="O68" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -5881,36 +6287,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3574</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>27764</v>
+      </c>
+      <c r="C69" t="s">
+        <v>455</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="J69" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -5918,10 +6325,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -5942,51 +6349,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3574</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>35538</v>
+      </c>
+      <c r="C70" t="s">
+        <v>460</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="J70" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6010,7 +6418,7 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
